--- a/bitget_project/manage/0914/업데이트목록.xlsx
+++ b/bitget_project/manage/0914/업데이트목록.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\mandleda\bitget_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B93936E-F125-4FB8-9243-D9BFB7F6C656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03AA2AEE-CF76-4BF1-BB95-79399D4855ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-16320" yWindow="-4725" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="113">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -409,10 +409,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>강제분할매수 수정 후 max 테스트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2차 이상 매수되지 않음</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -491,10 +487,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>부분완료(7차분할매수 접근 test)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>로그인 실패시 버튼 비활성화</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -503,10 +495,24 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>수정버튼 적용시 일괄 setting값 update
+    <t>3.1 강제분할매수 수정 후 max 테스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2 분할매수 수정 후 테스트 2 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7차매수 접근 안함 완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">수정버튼 적용시 일괄 setting값 update
 setting_apply_btn_func 및 강제적용 버튼 구현, 강제적용시 인포 ui 띄움
 set_div_data의 세팅값 적용 함수 setting_apply_btn_func로 따로 구현 후
-강제적용시 구현한 함수 호출</t>
+강제적용시 구현한 함수 호출
+강제적용 버튼은 동작중일때도 적용되도록? (현재상태)
+중지하고 적용되도록? </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -927,6 +933,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>810903</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>143743</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="그림 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AD52C78-52CF-6E38-AEAE-0976A47EDA5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7086600" y="36795075"/>
+          <a:ext cx="9154803" cy="6220693"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1193,10 +1243,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H119"/>
+  <dimension ref="A1:H180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
+    <sheetView tabSelected="1" topLeftCell="F40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G85" sqref="G85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1656,18 +1706,18 @@
     </row>
     <row r="57" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E57" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G57" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="58" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E58" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>79</v>
@@ -1675,7 +1725,7 @@
     </row>
     <row r="59" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E59" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>79</v>
@@ -1683,7 +1733,7 @@
     </row>
     <row r="60" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E60" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>79</v>
@@ -1691,32 +1741,32 @@
     </row>
     <row r="61" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E61" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>79</v>
       </c>
       <c r="G61" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="62" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E62" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F62" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="63" spans="5:8" ht="66" x14ac:dyDescent="0.3">
+    <row r="63" spans="5:8" ht="99" x14ac:dyDescent="0.3">
       <c r="E63" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="64" spans="5:8" ht="49.5" x14ac:dyDescent="0.3">
@@ -1727,7 +1777,7 @@
         <v>77</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="65" spans="5:8" ht="49.5" x14ac:dyDescent="0.3">
@@ -1735,7 +1785,7 @@
         <v>78</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="66" spans="5:8" ht="66" x14ac:dyDescent="0.3">
@@ -1743,7 +1793,7 @@
         <v>75</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="67" spans="5:8" ht="49.5" x14ac:dyDescent="0.3">
@@ -1751,39 +1801,39 @@
         <v>76</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="68" spans="5:8" ht="33" x14ac:dyDescent="0.3">
       <c r="G68" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H68" s="6" t="s">
         <v>101</v>
-      </c>
-      <c r="H68" s="6" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="69" spans="5:8" ht="33" x14ac:dyDescent="0.3">
       <c r="E69" t="s">
+        <v>98</v>
+      </c>
+      <c r="G69" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G69" s="7" t="s">
-        <v>100</v>
-      </c>
       <c r="H69" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="70" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E70" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="85" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E85" t="s">
+        <v>105</v>
+      </c>
+      <c r="F85" s="5" t="s">
         <v>106</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>107</v>
       </c>
       <c r="G85" t="s">
         <v>81</v>
@@ -1802,7 +1852,7 @@
     </row>
     <row r="87" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E87" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="101" spans="5:7" x14ac:dyDescent="0.3">
@@ -1823,17 +1873,27 @@
     </row>
     <row r="103" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E103" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
     </row>
     <row r="117" spans="5:6" x14ac:dyDescent="0.3">
       <c r="F117" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="119" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E119" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="150" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E150" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="180" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F180" s="5" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/bitget_project/manage/0914/업데이트목록.xlsx
+++ b/bitget_project/manage/0914/업데이트목록.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\mandleda\bitget_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03AA2AEE-CF76-4BF1-BB95-79399D4855ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CE7C81-5D3C-4BA9-904F-831DBFC7B850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-4725" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="114">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -397,10 +397,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0차 익절</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>0-4 매도</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -513,6 +509,14 @@
 강제적용시 구현한 함수 호출
 강제적용 버튼은 동작중일때도 적용되도록? (현재상태)
 중지하고 적용되도록? </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>매수대기 state 활성화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 익절</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -673,13 +677,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>839480</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>152795</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -717,13 +721,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>868061</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>181380</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -761,13 +765,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>829955</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>76591</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -805,13 +809,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>772797</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>152772</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -835,7 +839,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7086600" y="32184975"/>
+          <a:off x="7086600" y="30927675"/>
           <a:ext cx="9116697" cy="2667372"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -849,13 +853,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1753044</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>95410</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -893,13 +897,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1762570</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>162269</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -937,13 +941,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>810903</xdr:colOff>
-      <xdr:row>178</xdr:row>
+      <xdr:row>179</xdr:row>
       <xdr:rowOff>143743</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1243,10 +1247,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H180"/>
+  <dimension ref="A1:H181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G85" sqref="G85"/>
+    <sheetView tabSelected="1" topLeftCell="D75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1706,18 +1710,18 @@
     </row>
     <row r="57" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G57" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>79</v>
@@ -1725,7 +1729,7 @@
     </row>
     <row r="59" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E59" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>79</v>
@@ -1733,7 +1737,7 @@
     </row>
     <row r="60" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E60" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>79</v>
@@ -1741,159 +1745,167 @@
     </row>
     <row r="61" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E61" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>79</v>
       </c>
       <c r="G61" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E62" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F62" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="63" spans="5:8" ht="99" x14ac:dyDescent="0.3">
+    <row r="63" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E63" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="64" spans="5:8" ht="49.5" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="64" spans="5:8" ht="99" x14ac:dyDescent="0.3">
       <c r="E64" t="s">
+        <v>95</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="65" spans="5:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="E65" t="s">
         <v>74</v>
       </c>
-      <c r="G64" s="7" t="s">
+      <c r="G65" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="H64" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="65" spans="5:8" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="G65" s="7" t="s">
+      <c r="H65" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="5:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="G66" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="H65" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="66" spans="5:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="G66" s="7" t="s">
+      <c r="H66" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="5:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="G67" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="H66" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="67" spans="5:8" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="G67" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="H67" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="68" spans="5:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="68" spans="5:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="G68" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H68" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="H68" s="6" t="s">
-        <v>101</v>
-      </c>
     </row>
     <row r="69" spans="5:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="E69" t="s">
-        <v>98</v>
-      </c>
       <c r="G69" s="7" t="s">
         <v>99</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="70" spans="5:8" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="5:8" ht="33" x14ac:dyDescent="0.3">
       <c r="E70" t="s">
+        <v>97</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E71" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="86" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E86" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="85" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E85" t="s">
+      <c r="F86" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="F85" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G85" t="s">
+      <c r="G86" t="s">
         <v>81</v>
       </c>
-      <c r="H85" t="s">
+      <c r="H86" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="G86" t="s">
+    <row r="87" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="G87" t="s">
         <v>82</v>
       </c>
-      <c r="H86" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E87" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="101" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="F101" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G101" t="s">
-        <v>86</v>
+      <c r="H87" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="88" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E88" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="102" spans="5:7" x14ac:dyDescent="0.3">
       <c r="F102" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G102" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="103" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="F103" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="G102" t="s">
+      <c r="G103" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="104" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E104" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="118" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="F118" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="103" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E103" t="s">
+    <row r="120" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E120" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="151" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E151" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="117" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="F117" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="119" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E119" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="150" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E150" t="s">
+    <row r="181" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F181" s="5" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="180" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F180" s="5" t="s">
-        <v>111</v>
       </c>
     </row>
   </sheetData>
